--- a/assetList.xlsx
+++ b/assetList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teror\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fady\Desktop\Unfinished\Github project\jodenkoekjes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A5F8E4-7E41-4031-A377-51C4FD42F3B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D0560-C267-4273-B1B6-44192C7EC7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5342A60-ADBD-4D15-A9B7-E23F6BE05178}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{A5342A60-ADBD-4D15-A9B7-E23F6BE05178}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -144,15 +144,9 @@
     <t>20% to shoot extra projectile</t>
   </si>
   <si>
-    <t>explosion!</t>
-  </si>
-  <si>
     <t>10% chance to make bullet explode on hit</t>
   </si>
   <si>
-    <t>mines!</t>
-  </si>
-  <si>
     <t>enemies drop mines when killed</t>
   </si>
   <si>
@@ -190,6 +184,12 @@
   </si>
   <si>
     <t>after 5 kills block next incomming attack</t>
+  </si>
+  <si>
+    <t>bullet explosion</t>
+  </si>
+  <si>
+    <t>exploding mines</t>
   </si>
 </sst>
 </file>
@@ -254,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -573,22 +573,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485AAAA1-30CF-4BA1-B76A-8E17F7793B93}">
   <dimension ref="C3:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
@@ -596,7 +596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
@@ -612,7 +612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
@@ -620,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
@@ -628,7 +628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
@@ -639,17 +639,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
@@ -665,7 +665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
@@ -673,17 +673,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
@@ -699,7 +699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
@@ -707,17 +707,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
@@ -733,7 +733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
@@ -741,24 +741,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>34</v>
       </c>
@@ -766,68 +766,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
         <v>36</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="3" t="s">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="3" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/assetList.xlsx
+++ b/assetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fady\Desktop\Unfinished\Github project\jodenkoekjes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D0560-C267-4273-B1B6-44192C7EC7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555ADEC1-E443-4EA2-B133-D99904C81055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{A5342A60-ADBD-4D15-A9B7-E23F6BE05178}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>drop items</t>
   </si>
   <si>
-    <t>elemental water</t>
-  </si>
-  <si>
     <t>elemental fire</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>exploding mines</t>
+  </si>
+  <si>
+    <t>elemental ice</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485AAAA1-30CF-4BA1-B76A-8E17F7793B93}">
   <dimension ref="C3:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>21</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>20</v>
@@ -633,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>29</v>
@@ -755,79 +755,79 @@
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
         <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
         <v>38</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
         <v>40</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
         <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
         <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
         <v>46</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
         <v>48</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
